--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4146979.749801587</v>
+        <v>4145099.570031258</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603189.2287632246</v>
+        <v>842325.2370016845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>360.4840829176713</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>96.95377689311783</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.94182778688864</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>137.5418012681499</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.8374309337276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>194.9453656527047</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>166.7328750578504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.72683757586884</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274216</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498019</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.9527187969215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>164.3675597136123</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002169</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>49.75377031702904</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2065,10 +2065,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.417613685521</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.41761368552092</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
@@ -2302,10 +2302,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>70.41761368552054</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>70.41761368552039</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>77.54261572246357</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552129</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.41761368552086</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552105</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.41761368552068</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.375138862102</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2149.375138862102</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.375138862102</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1662.48357412947</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1276.695321531225</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>865.7094167416178</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>447.7456086398047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>120.5508886758075</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>837.1179892781316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2528.732045505243</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2310.097378477306</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2056.335593115397</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2056.335593115397</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822477</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5045,46 +5045,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>944.6756850271183</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043085</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>789.0753054710163</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286134</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850831</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="14">
@@ -5267,46 +5267,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M15" t="n">
         <v>1890.372576454149</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028574</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387593</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011509</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>835.4163915387941</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,7 +5689,7 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
         <v>1586.358229057537</v>
@@ -5698,25 +5698,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1536.101895403972</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1323.468653249752</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449756</v>
+        <v>1045.492187519584</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953629</v>
+        <v>801.9598723699714</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146765</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729333</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5741,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5826,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366502</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5941,19 +5941,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449758</v>
+        <v>906.9806841449752</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953631</v>
+        <v>663.4483689953624</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146767</v>
+        <v>385.183372014676</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729335</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729335</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
@@ -6187,10 +6187,10 @@
         <v>385.1833720146763</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729331</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1515.22932634489</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1326.461489316716</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1113.828247162496</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449758</v>
+        <v>835.8517814323283</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953631</v>
+        <v>592.3194662827156</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146767</v>
+        <v>314.054469302029</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,16 +6446,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6470,7 +6470,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
         <v>822.7849551969364</v>
@@ -6640,31 +6640,31 @@
         <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029364</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875144</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449761</v>
+        <v>906.9806841449753</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953634</v>
+        <v>663.4483689953624</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146769</v>
+        <v>385.183372014676</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729338</v>
+        <v>168.3459941729328</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6722,10 +6722,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6868,16 +6868,16 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,19 +6923,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,28 +7190,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,10 +7248,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7415,16 +7415,16 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,16 +7488,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7652,10 +7652,10 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,16 +7725,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9027,7 +9027,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9264,7 +9264,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9501,7 +9501,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10686,7 +10686,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.879261385015838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>33.55325026999097</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338638</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>137.1263883408628</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.1263883408623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>64.97569763533683</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808138</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>137.1263883408629</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>67.15720800698054</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
         <v>135.3933113208577</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>137.1263883408622</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
@@ -24610,16 +24610,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169851</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>28.50608739256052</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
@@ -24847,16 +24847,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169875</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>67.45556335630403</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
@@ -26320,28 +26320,28 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="G2" t="n">
         <v>748956.5829925194</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.582992519</v>
       </c>
       <c r="I2" t="n">
-        <v>748956.5829925194</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="J2" t="n">
-        <v>748956.5829925189</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="K2" t="n">
         <v>748956.5829925191</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710694</v>
@@ -26350,7 +26350,7 @@
         <v>779989.6813710696</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="P2" t="n">
         <v>779989.6813710695</v>
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569168</v>
+        <v>8832.521060568846</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.7936905758038</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905757961</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415201</v>
+        <v>4420.718193415136</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415181</v>
+        <v>4420.718193415177</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415225</v>
+        <v>4420.718193415178</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415207</v>
+        <v>4420.71819341519</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.71819341519</v>
+        <v>4420.718193415187</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501787</v>
@@ -26488,22 +26488,22 @@
         <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501784</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750393</v>
+        <v>-31896.41508750399</v>
       </c>
       <c r="C6" t="n">
         <v>558071.4641270405</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270406</v>
+        <v>558071.4641270402</v>
       </c>
       <c r="E6" t="n">
-        <v>125020.0573854583</v>
+        <v>124922.5982594862</v>
       </c>
       <c r="F6" t="n">
-        <v>650180.0938623546</v>
+        <v>650082.6347363829</v>
       </c>
       <c r="G6" t="n">
-        <v>642787.8412735171</v>
+        <v>642706.175225153</v>
       </c>
       <c r="H6" t="n">
-        <v>651620.3623340862</v>
+        <v>651538.6962857214</v>
       </c>
       <c r="I6" t="n">
-        <v>651620.3623340864</v>
+        <v>651538.6962857215</v>
       </c>
       <c r="J6" t="n">
-        <v>475197.1431414929</v>
+        <v>475115.4770931285</v>
       </c>
       <c r="K6" t="n">
-        <v>651620.3623340861</v>
+        <v>651538.6962857215</v>
       </c>
       <c r="L6" t="n">
         <v>604562.4825154352</v>
       </c>
       <c r="M6" t="n">
-        <v>524266.9793853106</v>
+        <v>524266.9793853103</v>
       </c>
       <c r="N6" t="n">
         <v>659067.9946191479</v>
       </c>
       <c r="O6" t="n">
-        <v>659067.9946191477</v>
+        <v>659067.9946191476</v>
       </c>
       <c r="P6" t="n">
         <v>659067.9946191477</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>154.2703906151715</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>85.98948845797261</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>113.6823662401394</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.71246049576317</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.7472224183672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.8388043680903</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>7.682837751121156</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592628</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="20">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="23">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>300.1617860290723</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>353.0329386354459</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508796</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,16 +32099,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>392.6063366508803</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32968,7 +32968,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33442,7 +33442,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,10 +33746,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,7 +34220,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34457,7 +34457,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>623.7328158570539</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>604.299013467731</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989110998</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,10 +35969,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36048,7 +36048,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
         <v>284.317529131315</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>740.6069989111005</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36285,7 +36285,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
         <v>284.317529131315</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37394,10 +37394,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,7 +37868,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,13 +38020,13 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,7 +38105,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
